--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -540,40 +540,40 @@
         <v>1.747724</v>
       </c>
       <c r="I2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q2">
-        <v>0.02287343494577778</v>
+        <v>0.01327804180266667</v>
       </c>
       <c r="R2">
-        <v>0.205860914512</v>
+        <v>0.119502376224</v>
       </c>
       <c r="S2">
-        <v>0.004889441930062246</v>
+        <v>0.001413555636755057</v>
       </c>
       <c r="T2">
-        <v>0.004889441930062246</v>
+        <v>0.001413555636755057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.747724</v>
       </c>
       <c r="I3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>13.206284</v>
       </c>
       <c r="O3">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P3">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q3">
         <v>2.564548833068445</v>
@@ -632,10 +632,10 @@
         <v>23.080939497616</v>
       </c>
       <c r="S3">
-        <v>0.5481998058368439</v>
+        <v>0.2730170994031256</v>
       </c>
       <c r="T3">
-        <v>0.5481998058368438</v>
+        <v>0.2730170994031256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.747724</v>
       </c>
       <c r="I4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N4">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O4">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P4">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q4">
-        <v>1.717572653935111</v>
+        <v>4.351071723293778</v>
       </c>
       <c r="R4">
-        <v>15.458153885416</v>
+        <v>39.159645509644</v>
       </c>
       <c r="S4">
-        <v>0.3671495676966005</v>
+        <v>0.4632070038484319</v>
       </c>
       <c r="T4">
-        <v>0.3671495676966005</v>
+        <v>0.4632070038484318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2072096666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.621629</v>
+      </c>
+      <c r="I5">
+        <v>0.2623623411116874</v>
+      </c>
+      <c r="J5">
+        <v>0.2623623411116874</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.05049433333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.151483</v>
-      </c>
-      <c r="I5">
-        <v>0.07976118453649339</v>
-      </c>
-      <c r="J5">
-        <v>0.07976118453649339</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N5">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P5">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q5">
-        <v>0.001982542178222222</v>
+        <v>0.004722722722666667</v>
       </c>
       <c r="R5">
-        <v>0.017842879604</v>
+        <v>0.042504504504</v>
       </c>
       <c r="S5">
-        <v>0.0004237896440694408</v>
+        <v>0.0005027722780716001</v>
       </c>
       <c r="T5">
-        <v>0.0004237896440694407</v>
+        <v>0.0005027722780716001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H6">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.206284</v>
       </c>
       <c r="O6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q6">
-        <v>0.2222808354635556</v>
+        <v>0.9121565685151111</v>
       </c>
       <c r="R6">
-        <v>2.000527519172</v>
+        <v>8.209409116635999</v>
       </c>
       <c r="S6">
-        <v>0.04751491150066179</v>
+        <v>0.09710649192027207</v>
       </c>
       <c r="T6">
-        <v>0.04751491150066178</v>
+        <v>0.09710649192027207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H7">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N7">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O7">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P7">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q7">
-        <v>0.1488696489468889</v>
+        <v>1.547585525105444</v>
       </c>
       <c r="R7">
-        <v>1.339826840522</v>
+        <v>13.928269725949</v>
       </c>
       <c r="S7">
-        <v>0.03182248339176216</v>
+        <v>0.1647530769133438</v>
       </c>
       <c r="T7">
-        <v>0.03182248339176216</v>
+        <v>0.1647530769133438</v>
       </c>
     </row>
   </sheetData>
